--- a/Database/data java2/Subject.xlsx
+++ b/Database/data java2/Subject.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\data java2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vuduc\Desktop\Project2\Database\data java2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90D75D0-1CED-4B28-8DA4-1DEB3BB21E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D20325E-18B5-4097-AA8B-9A97111F3D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1AEF42C6-C0C8-4CF3-92C0-DC22A03854F4}"/>
+    <workbookView xWindow="7200" yWindow="4665" windowWidth="21600" windowHeight="12735" xr2:uid="{1AEF42C6-C0C8-4CF3-92C0-DC22A03854F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,15 +41,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Session</t>
-  </si>
-  <si>
-    <t>Staff_id</t>
-  </si>
-  <si>
     <t>PHP</t>
   </si>
   <si>
@@ -69,6 +63,15 @@
   </si>
   <si>
     <t>HTML/CSS/JS</t>
+  </si>
+  <si>
+    <t>session</t>
+  </si>
+  <si>
+    <t>staff_id</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
@@ -108,7 +111,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -124,7 +127,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Chủ đề Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -420,37 +423,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F4BE574-24F1-43F1-A0B1-8AB884EBA68A}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="67.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>8</v>
@@ -458,13 +462,17 @@
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO subject (name,session,staff_id) VALUE ('",B2,"','",C2,"','",D2,"');")</f>
+        <v>INSERT INTO subject (name,session,staff_id) VALUE ('HTML/CSS/JS','8','1');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>8</v>
@@ -472,13 +480,17 @@
       <c r="D3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E9" si="0">_xlfn.CONCAT("INSERT INTO subject (name,session,staff_id) VALUE ('",B3,"','",C3,"','",D3,"');")</f>
+        <v>INSERT INTO subject (name,session,staff_id) VALUE ('AngularJS','8','2');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -486,13 +498,17 @@
       <c r="D4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO subject (name,session,staff_id) VALUE ('PHP','8','3');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>8</v>
@@ -500,13 +516,17 @@
       <c r="D5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO subject (name,session,staff_id) VALUE ('Java1','8','4');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -514,13 +534,17 @@
       <c r="D6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO subject (name,session,staff_id) VALUE ('Java2','8','5');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -528,13 +552,17 @@
       <c r="D7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO subject (name,session,staff_id) VALUE ('C#','8','6');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>8</v>
@@ -542,19 +570,27 @@
       <c r="D8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO subject (name,session,staff_id) VALUE ('C++','8','7');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9">
         <v>8</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO subject (name,session,staff_id) VALUE ('Project','8','8');</v>
       </c>
     </row>
   </sheetData>
